--- a/checking_into_geography_summary.xlsx
+++ b/checking_into_geography_summary.xlsx
@@ -102,13 +102,13 @@
     <t>different rates and overlap proportion (OU_LINEAR_BETA)</t>
   </si>
   <si>
-    <t>**some of these are within AICc of 2</t>
-  </si>
-  <si>
     <t>**a model with only overlap proportion often provides worse fit to data than models with migration category</t>
   </si>
   <si>
     <t>**these models tells us that both geography and migration are important, correct?</t>
+  </si>
+  <si>
+    <t>**some of these are within AICc of 2 and considering the low power that could suggest they're pretty equal</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -592,7 +594,7 @@
         <v>-38.94</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -677,7 +679,7 @@
         <v>-36.53</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -709,7 +711,7 @@
         <v>21</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
